--- a/data/trans_orig/P59A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17376</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10602</v>
+        <v>10859</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26755</v>
+        <v>26369</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1511643408168133</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09223501546633792</v>
+        <v>0.09447320924752116</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2327560146402159</v>
+        <v>0.2294015195714178</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>13135</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7291</v>
+        <v>7159</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22182</v>
+        <v>21699</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1094050707340654</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06072433539075554</v>
+        <v>0.05962626896104322</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.184760481702936</v>
+        <v>0.1807333079626583</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -786,19 +786,19 @@
         <v>30511</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22135</v>
+        <v>20995</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43350</v>
+        <v>42756</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1298304376561277</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09418886382220405</v>
+        <v>0.08933928908801997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1844631589129007</v>
+        <v>0.1819346183692747</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>97571</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88192</v>
+        <v>88578</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104345</v>
+        <v>104088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8488356591831866</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7672439853597842</v>
+        <v>0.7705984804285819</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9077649845336622</v>
+        <v>0.9055267907524789</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>101</v>
@@ -836,19 +836,19 @@
         <v>106925</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>97878</v>
+        <v>98361</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>112769</v>
+        <v>112901</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8905949292659346</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8152395182970639</v>
+        <v>0.8192666920373415</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9392756646092445</v>
+        <v>0.9403737310389566</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>196</v>
@@ -857,19 +857,19 @@
         <v>204496</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>191657</v>
+        <v>192251</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>212872</v>
+        <v>214012</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8701695623438723</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8155368410870992</v>
+        <v>0.8180653816307265</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.905811136177796</v>
+        <v>0.9106607109119802</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>21508</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13490</v>
+        <v>13072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33615</v>
+        <v>32895</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1144168850824864</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07176564982717985</v>
+        <v>0.06954077262243799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1788294985737862</v>
+        <v>0.1749989426700062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -982,19 +982,19 @@
         <v>19496</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12037</v>
+        <v>11594</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30037</v>
+        <v>29810</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09905762445775239</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06115802643654397</v>
+        <v>0.05890792160870067</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1526124422895785</v>
+        <v>0.1514603948679459</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -1003,19 +1003,19 @@
         <v>41004</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28648</v>
+        <v>29939</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54803</v>
+        <v>55523</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1065607499960689</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0744492666128934</v>
+        <v>0.07780437492524762</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1424223650934731</v>
+        <v>0.1442916569903338</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>166467</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>154360</v>
+        <v>155080</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>174485</v>
+        <v>174903</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8855831149175135</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.821170501426214</v>
+        <v>0.8250010573299938</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9282343501728202</v>
+        <v>0.930459227377562</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>178</v>
@@ -1053,19 +1053,19 @@
         <v>177323</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>166782</v>
+        <v>167009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>184782</v>
+        <v>185225</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9009423755422477</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8473875577104215</v>
+        <v>0.8485396051320541</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9388419735634561</v>
+        <v>0.9410920783912994</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>337</v>
@@ -1074,19 +1074,19 @@
         <v>343791</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>329992</v>
+        <v>329272</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>356147</v>
+        <v>354856</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8934392500039311</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8575776349065269</v>
+        <v>0.8557083430096664</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9255507333871066</v>
+        <v>0.9221956250747524</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>18103</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11177</v>
+        <v>11253</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27279</v>
+        <v>27992</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1560280242880345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09633174492171745</v>
+        <v>0.09698605276695922</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2351161126350381</v>
+        <v>0.2412621502013166</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>12814</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6926</v>
+        <v>7155</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20747</v>
+        <v>22477</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09264459658617261</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05007120879232328</v>
+        <v>0.05172804570594693</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1499934384977155</v>
+        <v>0.1625029364473832</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1220,19 +1220,19 @@
         <v>30917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21518</v>
+        <v>21725</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42692</v>
+        <v>43231</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1215581990527121</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08460273841904214</v>
+        <v>0.08541798629677319</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1678547430796788</v>
+        <v>0.1699752439780306</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>97919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88743</v>
+        <v>88030</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>104845</v>
+        <v>104769</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8439719757119656</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7648838873649623</v>
+        <v>0.7587378497986833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9036682550782827</v>
+        <v>0.9030139472330407</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>127</v>
@@ -1270,19 +1270,19 @@
         <v>125503</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>117570</v>
+        <v>115840</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>131391</v>
+        <v>131162</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9073554034138274</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8500065615022846</v>
+        <v>0.8374970635526169</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9499287912076767</v>
+        <v>0.9482719542940532</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>223</v>
@@ -1291,19 +1291,19 @@
         <v>223422</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>211647</v>
+        <v>211108</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>232821</v>
+        <v>232614</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8784418009472879</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8321452569203212</v>
+        <v>0.8300247560219695</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9153972615809578</v>
+        <v>0.9145820137032269</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>21831</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14196</v>
+        <v>14003</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32283</v>
+        <v>31194</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1534657521120354</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09979604257999029</v>
+        <v>0.09843605508058545</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2269396673190321</v>
+        <v>0.2192896818832196</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1416,19 +1416,19 @@
         <v>23047</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15043</v>
+        <v>14971</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33277</v>
+        <v>33049</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1342155751758049</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08760756218052045</v>
+        <v>0.08718496450094478</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1937951456682866</v>
+        <v>0.1924648146690654</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1437,19 +1437,19 @@
         <v>44878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33803</v>
+        <v>33788</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58554</v>
+        <v>58290</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.142937471031922</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1076657216074596</v>
+        <v>0.1076161804940276</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1864968520247389</v>
+        <v>0.185658246340508</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>120421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>109969</v>
+        <v>111058</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>128056</v>
+        <v>128249</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8465342478879646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7730603326809667</v>
+        <v>0.7807103181167803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9002039574200097</v>
+        <v>0.9015639449194144</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>154</v>
@@ -1487,19 +1487,19 @@
         <v>148667</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>138437</v>
+        <v>138665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156671</v>
+        <v>156743</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8657844248241952</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8062048543317133</v>
+        <v>0.8075351853309346</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9123924378194794</v>
+        <v>0.9128150354990553</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>274</v>
@@ -1508,19 +1508,19 @@
         <v>269088</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>255412</v>
+        <v>255676</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>280163</v>
+        <v>280178</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.857062528968078</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8135031479752612</v>
+        <v>0.8143417536594921</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8923342783925404</v>
+        <v>0.8923838195059725</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>15661</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9361</v>
+        <v>9281</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23931</v>
+        <v>23106</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.164971697430854</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09860902074105315</v>
+        <v>0.09776001530136254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.252078620476195</v>
+        <v>0.2433858716011387</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1633,19 +1633,19 @@
         <v>12081</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6650</v>
+        <v>6333</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19469</v>
+        <v>19974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1478747628333138</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08140356137427358</v>
+        <v>0.07751463498985692</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2383105023957251</v>
+        <v>0.2444872827484834</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1654,19 +1654,19 @@
         <v>27742</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19604</v>
+        <v>18860</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38969</v>
+        <v>39943</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1570638804393737</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1109898297500988</v>
+        <v>0.1067763360304304</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2206258692815209</v>
+        <v>0.2261398087673795</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>79273</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71003</v>
+        <v>71828</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85573</v>
+        <v>85653</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.835028302569146</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.747921379523805</v>
+        <v>0.7566141283988613</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9013909792589468</v>
+        <v>0.9022399846986375</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -1704,19 +1704,19 @@
         <v>69615</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62227</v>
+        <v>61722</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75046</v>
+        <v>75363</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8521252371666862</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7616894976042746</v>
+        <v>0.7555127172515166</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9185964386257264</v>
+        <v>0.9224853650101433</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>150</v>
@@ -1725,19 +1725,19 @@
         <v>148888</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>137661</v>
+        <v>136687</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>157026</v>
+        <v>157770</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8429361195606263</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7793741307184792</v>
+        <v>0.7738601912326205</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8890101702499015</v>
+        <v>0.8932236639695696</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>18826</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11558</v>
+        <v>11105</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28116</v>
+        <v>27503</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1704225752813593</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1046308101156015</v>
+        <v>0.1005293313381928</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2545155058005242</v>
+        <v>0.2489631334792012</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1850,19 +1850,19 @@
         <v>15226</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9269</v>
+        <v>9050</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24530</v>
+        <v>23948</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1282489509099273</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07807634349226737</v>
+        <v>0.07623043848162274</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2066167831597529</v>
+        <v>0.2017205945549752</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -1871,19 +1871,19 @@
         <v>34052</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24712</v>
+        <v>24468</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47684</v>
+        <v>47957</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1485765093846885</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1078226057596886</v>
+        <v>0.1067599489446003</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2080545918691474</v>
+        <v>0.2092426145841844</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>91643</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>82353</v>
+        <v>82966</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>98911</v>
+        <v>99364</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8295774247186406</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7454844941994758</v>
+        <v>0.7510368665207987</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8953691898843987</v>
+        <v>0.899470668661807</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>99</v>
@@ -1921,19 +1921,19 @@
         <v>103495</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>94191</v>
+        <v>94773</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>109452</v>
+        <v>109671</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8717510490900727</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7933832168402472</v>
+        <v>0.7982794054450254</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9219236565077326</v>
+        <v>0.9237695615183774</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>191</v>
@@ -1942,19 +1942,19 @@
         <v>195139</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>181507</v>
+        <v>181234</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>204479</v>
+        <v>204723</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8514234906153114</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7919454081308525</v>
+        <v>0.790757385415815</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8921773942403113</v>
+        <v>0.8932400510553997</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>31184</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21719</v>
+        <v>22254</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43658</v>
+        <v>42941</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1413834496371961</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09847346743635954</v>
+        <v>0.1008950794128911</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1979414075626356</v>
+        <v>0.194687684425239</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2067,19 +2067,19 @@
         <v>22104</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13978</v>
+        <v>13383</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32300</v>
+        <v>32084</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09004011213585957</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.056937915014805</v>
+        <v>0.05451512227856599</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1315700261060013</v>
+        <v>0.1306910328744795</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -2088,19 +2088,19 @@
         <v>53288</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40837</v>
+        <v>40307</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69216</v>
+        <v>67234</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1143384655766388</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08762354828636533</v>
+        <v>0.08648658819363191</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1485155714026982</v>
+        <v>0.1442628928126408</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>189377</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>176903</v>
+        <v>177620</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>198842</v>
+        <v>198307</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8586165503628039</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8020585924373644</v>
+        <v>0.805312315574761</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9015265325636405</v>
+        <v>0.8991049205871089</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>220</v>
@@ -2138,19 +2138,19 @@
         <v>223389</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>213193</v>
+        <v>213409</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>231515</v>
+        <v>232110</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9099598878641404</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8684299738939987</v>
+        <v>0.8693089671255205</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9430620849851948</v>
+        <v>0.945484877721434</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>405</v>
@@ -2159,19 +2159,19 @@
         <v>412766</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>396838</v>
+        <v>398820</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>425217</v>
+        <v>425747</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8856615344233612</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8514844285973018</v>
+        <v>0.8557371071873592</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9123764517136346</v>
+        <v>0.9135134118063681</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>31791</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21165</v>
+        <v>22367</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44776</v>
+        <v>44671</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1055856381182184</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07029307027630928</v>
+        <v>0.07428677418875715</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1487105336013898</v>
+        <v>0.1483638281667858</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -2284,19 +2284,19 @@
         <v>23474</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13726</v>
+        <v>14980</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35065</v>
+        <v>35136</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0758589556842352</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04435804213247944</v>
+        <v>0.0484095878889973</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1133177713671703</v>
+        <v>0.1135473533387661</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -2305,19 +2305,19 @@
         <v>55265</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41613</v>
+        <v>42349</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70586</v>
+        <v>71612</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09051900819775086</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06815851900181824</v>
+        <v>0.06936350472348882</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1156142081629265</v>
+        <v>0.117294361648329</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>269301</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>256316</v>
+        <v>256421</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>279927</v>
+        <v>278725</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8944143618817817</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8512894663986103</v>
+        <v>0.8516361718332138</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9297069297236908</v>
+        <v>0.9257132258112425</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>275</v>
@@ -2355,19 +2355,19 @@
         <v>285968</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>274377</v>
+        <v>274306</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>295716</v>
+        <v>294462</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9241410443157648</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8866822286328296</v>
+        <v>0.8864526466612344</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9556419578675205</v>
+        <v>0.9515904121110034</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>543</v>
@@ -2376,19 +2376,19 @@
         <v>555269</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>539948</v>
+        <v>538922</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>568921</v>
+        <v>568185</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9094809918022492</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8843857918370737</v>
+        <v>0.882705638351671</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9318414809981818</v>
+        <v>0.9306364952765113</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>176279</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>153836</v>
+        <v>153673</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>203060</v>
+        <v>205331</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.136836108197536</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1194146847497842</v>
+        <v>0.1192883250571037</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1576245902527514</v>
+        <v>0.1593876512377565</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>133</v>
@@ -2501,19 +2501,19 @@
         <v>141378</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>118695</v>
+        <v>120623</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>165144</v>
+        <v>168712</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1022797520026375</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08587015906277999</v>
+        <v>0.0872650148974607</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1194734612322002</v>
+        <v>0.122054940217543</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>300</v>
@@ -2522,19 +2522,19 @@
         <v>317657</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>285580</v>
+        <v>283262</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>351090</v>
+        <v>354979</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1189496795805522</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1069383259986586</v>
+        <v>0.1060700874764048</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.131469001982865</v>
+        <v>0.1329254811615362</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1111973</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1085192</v>
+        <v>1082921</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1134416</v>
+        <v>1134579</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.863163891802464</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8423754097472487</v>
+        <v>0.8406123487622434</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8805853152502159</v>
+        <v>0.8807116749428961</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1222</v>
@@ -2572,19 +2572,19 @@
         <v>1240885</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1217119</v>
+        <v>1213551</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1263568</v>
+        <v>1261640</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8977202479973625</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8805265387677996</v>
+        <v>0.877945059782457</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9141298409372198</v>
+        <v>0.9127349851025394</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2319</v>
@@ -2593,19 +2593,19 @@
         <v>2352858</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2319425</v>
+        <v>2315536</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2384935</v>
+        <v>2387253</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8810503204194479</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.868530998017135</v>
+        <v>0.8670745188384634</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8930616740013414</v>
+        <v>0.8939299125235949</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>28461</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18187</v>
+        <v>18765</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38067</v>
+        <v>38591</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2192415364715967</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1400995293065322</v>
+        <v>0.1445526494575343</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2932435779271558</v>
+        <v>0.2972829479729354</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -2962,19 +2962,19 @@
         <v>25685</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17049</v>
+        <v>17016</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36185</v>
+        <v>36538</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2289398965878905</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1519632411640593</v>
+        <v>0.1516690461907138</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3225314084943838</v>
+        <v>0.3256764322561263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -2983,19 +2983,19 @@
         <v>54146</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41604</v>
+        <v>42440</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67954</v>
+        <v>68362</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.223737617982048</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1719126548763735</v>
+        <v>0.1753687485131293</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2807947790010087</v>
+        <v>0.2824780622556146</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>101353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91747</v>
+        <v>91223</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111627</v>
+        <v>111049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7807584635284033</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7067564220728441</v>
+        <v>0.7027170520270649</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8599004706934675</v>
+        <v>0.8554473505424657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -3033,19 +3033,19 @@
         <v>86507</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76007</v>
+        <v>75654</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95143</v>
+        <v>95176</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7710601034121095</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6774685915056161</v>
+        <v>0.6743235677438729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8480367588359407</v>
+        <v>0.8483309538092858</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>180</v>
@@ -3054,19 +3054,19 @@
         <v>187861</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>174053</v>
+        <v>173645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>200403</v>
+        <v>199567</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7762623820179521</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7192052209989915</v>
+        <v>0.7175219377443853</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.828087345123627</v>
+        <v>0.8246312514868706</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>29654</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20147</v>
+        <v>20686</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40909</v>
+        <v>41217</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1544465496453578</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1049334371938593</v>
+        <v>0.1077402881842692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.213065490795761</v>
+        <v>0.2146726634347227</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -3179,19 +3179,19 @@
         <v>27030</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18486</v>
+        <v>17908</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37921</v>
+        <v>38629</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1366472868595032</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09345449762653507</v>
+        <v>0.09053263588961528</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1917017179098106</v>
+        <v>0.195280577107157</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -3200,19 +3200,19 @@
         <v>56684</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43501</v>
+        <v>43836</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70899</v>
+        <v>71397</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.145414258756376</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1115947773578594</v>
+        <v>0.112454266491056</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1818814109834463</v>
+        <v>0.1831581014687255</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>162346</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>151091</v>
+        <v>150783</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171853</v>
+        <v>171314</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8455534503546421</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.786934509204239</v>
+        <v>0.785327336565277</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8950665628061407</v>
+        <v>0.8922597118157308</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>159</v>
@@ -3250,19 +3250,19 @@
         <v>170781</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>159890</v>
+        <v>159182</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>179325</v>
+        <v>179903</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8633527131404968</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8082982820901895</v>
+        <v>0.8047194228928436</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9065455023734651</v>
+        <v>0.9094673641103848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>311</v>
@@ -3271,19 +3271,19 @@
         <v>333127</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>318912</v>
+        <v>318414</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>346310</v>
+        <v>345975</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.854585741243624</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8181185890165543</v>
+        <v>0.8168418985312745</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8884052226421408</v>
+        <v>0.8875457335089439</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>15322</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9238</v>
+        <v>9171</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23886</v>
+        <v>23334</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1107831784834638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06679768884575422</v>
+        <v>0.06630935493640343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1727066365431167</v>
+        <v>0.1687182250598388</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3396,19 +3396,19 @@
         <v>13101</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6612</v>
+        <v>6611</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23910</v>
+        <v>22662</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09338981120726279</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04713414308294769</v>
+        <v>0.04712985271015336</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1704493621957037</v>
+        <v>0.1615493892039635</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -3417,19 +3417,19 @@
         <v>28422</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19111</v>
+        <v>18708</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41406</v>
+        <v>40934</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1020248302295542</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06860210386092611</v>
+        <v>0.06715640989385953</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1486330834710556</v>
+        <v>0.1469397926669154</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>122980</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>114416</v>
+        <v>114968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>129064</v>
+        <v>129131</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8892168215165362</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8272933634568843</v>
+        <v>0.8312817749401611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.933202311154246</v>
+        <v>0.9336906450635964</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -3467,19 +3467,19 @@
         <v>127177</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>116368</v>
+        <v>117616</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>133666</v>
+        <v>133667</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9066101887927372</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8295506378042963</v>
+        <v>0.8384506107960364</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9528658569170524</v>
+        <v>0.9528701472898466</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>241</v>
@@ -3488,19 +3488,19 @@
         <v>250158</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>237174</v>
+        <v>237646</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>259469</v>
+        <v>259872</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8979751697704459</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.851366916528944</v>
+        <v>0.8530602073330836</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9313978961390736</v>
+        <v>0.93284359010614</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>33833</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23776</v>
+        <v>23360</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45352</v>
+        <v>46320</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2187448336744431</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1537240850308447</v>
+        <v>0.1510345278149102</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2932206338051892</v>
+        <v>0.2994793545042444</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -3613,19 +3613,19 @@
         <v>26846</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17725</v>
+        <v>18049</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37688</v>
+        <v>37396</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1782172065130079</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1176682607708835</v>
+        <v>0.1198183422758135</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2501926608327983</v>
+        <v>0.2482544696838699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -3634,19 +3634,19 @@
         <v>60678</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47005</v>
+        <v>44847</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77219</v>
+        <v>76232</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.198748697601367</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1539613641483995</v>
+        <v>0.1468930027983588</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2529269799497815</v>
+        <v>0.2496937465953973</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>120834</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>109315</v>
+        <v>108347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130891</v>
+        <v>131307</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7812551663255569</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7067793661948109</v>
+        <v>0.7005206454957557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8462759149691553</v>
+        <v>0.8489654721850898</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -3684,19 +3684,19 @@
         <v>123788</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112946</v>
+        <v>113238</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>132909</v>
+        <v>132585</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8217827934869921</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7498073391672017</v>
+        <v>0.75174553031613</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8823317392291165</v>
+        <v>0.8801816577241864</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>234</v>
@@ -3705,19 +3705,19 @@
         <v>244623</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>228082</v>
+        <v>229069</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>258296</v>
+        <v>260454</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.801251302398633</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7470730200502186</v>
+        <v>0.7503062534046029</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8460386358516006</v>
+        <v>0.8531069972016413</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>9952</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4522</v>
+        <v>4838</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18278</v>
+        <v>18790</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1174167214149773</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05335432390304061</v>
+        <v>0.05707684545702128</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.215656120440624</v>
+        <v>0.2216985481241958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -3830,19 +3830,19 @@
         <v>15023</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9155</v>
+        <v>8444</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23399</v>
+        <v>22529</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1636165557102585</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09971310818920842</v>
+        <v>0.09197119947683058</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2548416543145713</v>
+        <v>0.2453694793118051</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -3851,19 +3851,19 @@
         <v>24974</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16146</v>
+        <v>16204</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35419</v>
+        <v>36307</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1414404573100844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09143929454306916</v>
+        <v>0.09177290258031548</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2005963584846317</v>
+        <v>0.2056221509974562</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>74803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66477</v>
+        <v>65965</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80233</v>
+        <v>79917</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8825832785850227</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7843438795593759</v>
+        <v>0.7783014518758042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9466456760969594</v>
+        <v>0.9429231545429786</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>76</v>
@@ -3901,19 +3901,19 @@
         <v>76793</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>68417</v>
+        <v>69287</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>82661</v>
+        <v>83372</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8363834442897414</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7451583456854285</v>
+        <v>0.7546305206881957</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9002868918107914</v>
+        <v>0.9080288005231695</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>146</v>
@@ -3922,19 +3922,19 @@
         <v>151597</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>141152</v>
+        <v>140264</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>160425</v>
+        <v>160367</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8585595426899155</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7994036415153682</v>
+        <v>0.7943778490025437</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9085607054569306</v>
+        <v>0.9082270974196843</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>11912</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5726</v>
+        <v>5982</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21712</v>
+        <v>22148</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.114680729940742</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05512858476239132</v>
+        <v>0.05758455365230807</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2090193206813647</v>
+        <v>0.2132153680976391</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -4047,19 +4047,19 @@
         <v>6083</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2187</v>
+        <v>2109</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11945</v>
+        <v>12828</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05779847356515108</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02077876279571423</v>
+        <v>0.02003876686304088</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.113485601857321</v>
+        <v>0.1218771018097468</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -4068,19 +4068,19 @@
         <v>17996</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10397</v>
+        <v>10049</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28778</v>
+        <v>28611</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08605216393301482</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0497175850597964</v>
+        <v>0.04805379743922378</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1376099422234646</v>
+        <v>0.1368119103118649</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>91963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>82163</v>
+        <v>81727</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>98149</v>
+        <v>97893</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.885319270059258</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7909806793186359</v>
+        <v>0.7867846319023614</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9448714152376089</v>
+        <v>0.9424154463476919</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>95</v>
@@ -4118,19 +4118,19 @@
         <v>99170</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>93308</v>
+        <v>92425</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>103066</v>
+        <v>103144</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9422015264348489</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8865143981426788</v>
+        <v>0.8781228981902534</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9792212372042858</v>
+        <v>0.9799612331369593</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>182</v>
@@ -4139,19 +4139,19 @@
         <v>191132</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>180350</v>
+        <v>180517</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>198731</v>
+        <v>199079</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9139478360669852</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8623900577765354</v>
+        <v>0.8631880896881351</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9502824149402036</v>
+        <v>0.9519462025607763</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>45369</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33657</v>
+        <v>33113</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58783</v>
+        <v>60152</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1695933061350068</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1258151083106327</v>
+        <v>0.1237807364471731</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2197369046965126</v>
+        <v>0.2248539852915634</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -4264,19 +4264,19 @@
         <v>51615</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39428</v>
+        <v>39579</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65910</v>
+        <v>67506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1789684283429953</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1367115404152746</v>
+        <v>0.1372348574676278</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.228532183303201</v>
+        <v>0.2340678367729537</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>88</v>
@@ -4285,19 +4285,19 @@
         <v>96984</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81056</v>
+        <v>78701</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>118044</v>
+        <v>116245</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1744570127380485</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1458042727841329</v>
+        <v>0.1415696714367393</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2123402260497046</v>
+        <v>0.209103409115265</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>222146</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>208732</v>
+        <v>207363</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>233858</v>
+        <v>234402</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8304066938649931</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7802630953034871</v>
+        <v>0.7751460147084362</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8741848916893673</v>
+        <v>0.8762192635528269</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>218</v>
@@ -4335,19 +4335,19 @@
         <v>236790</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>222495</v>
+        <v>220899</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>248977</v>
+        <v>248826</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8210315716570047</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7714678166967989</v>
+        <v>0.7659321632270462</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8632884595847251</v>
+        <v>0.8627651425323721</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>430</v>
@@ -4356,19 +4356,19 @@
         <v>458936</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>437876</v>
+        <v>439675</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>474864</v>
+        <v>477219</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8255429872619515</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7876597739502951</v>
+        <v>0.7908965908847349</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.854195727215867</v>
+        <v>0.8584303285632606</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>37081</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24964</v>
+        <v>25671</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51898</v>
+        <v>50290</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1186913187924282</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07990717432334925</v>
+        <v>0.08216920606906722</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1661198310072451</v>
+        <v>0.1609747861416829</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -4481,19 +4481,19 @@
         <v>37356</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26328</v>
+        <v>26116</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51372</v>
+        <v>50339</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1107201674917272</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07803434633480098</v>
+        <v>0.07740412780985929</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1522623637094217</v>
+        <v>0.149199786802663</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>65</v>
@@ -4502,19 +4502,19 @@
         <v>74437</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>58917</v>
+        <v>57731</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93711</v>
+        <v>93190</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1145525170679424</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09066879116682783</v>
+        <v>0.08884416882043365</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.144214450546759</v>
+        <v>0.1434123195853213</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>275331</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>260514</v>
+        <v>262122</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>287448</v>
+        <v>286741</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8813086812075718</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8338801689927547</v>
+        <v>0.8390252138583173</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9200928256766507</v>
+        <v>0.9178307939309329</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>279</v>
@@ -4552,19 +4552,19 @@
         <v>300038</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>286022</v>
+        <v>287055</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>311066</v>
+        <v>311278</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8892798325082728</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8477376362905783</v>
+        <v>0.850800213197337</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9219656536651991</v>
+        <v>0.9225958721901407</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>537</v>
@@ -4573,19 +4573,19 @@
         <v>575369</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>556095</v>
+        <v>556616</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>590889</v>
+        <v>592075</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8854474829320577</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8557855494532411</v>
+        <v>0.8565876804146787</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9093312088331722</v>
+        <v>0.9111558311795662</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>211582</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>185397</v>
+        <v>186567</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>241078</v>
+        <v>242911</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.152950083924151</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1340211504308723</v>
+        <v>0.1348668559932951</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1742724592027449</v>
+        <v>0.1755975000669664</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>183</v>
@@ -4698,19 +4698,19 @@
         <v>202740</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>175717</v>
+        <v>175782</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>230095</v>
+        <v>232381</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1423949525081311</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1234153508396352</v>
+        <v>0.1234615688353393</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1616082821397263</v>
+        <v>0.1632137723156067</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>375</v>
@@ -4719,19 +4719,19 @@
         <v>414321</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>376771</v>
+        <v>374176</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>452600</v>
+        <v>454726</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1475964837970203</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1342196862495614</v>
+        <v>0.133295024894924</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1612325150463496</v>
+        <v>0.1619901552269761</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1171758</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1142262</v>
+        <v>1140429</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1197943</v>
+        <v>1196773</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.847049916075849</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8257275407972551</v>
+        <v>0.8244024999330334</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8659788495691275</v>
+        <v>0.8651331440067047</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1145</v>
@@ -4769,19 +4769,19 @@
         <v>1221043</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1193688</v>
+        <v>1191402</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1248066</v>
+        <v>1248001</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8576050474918689</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.838391717860274</v>
+        <v>0.8367862276843935</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8765846491603648</v>
+        <v>0.8765384311646608</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2261</v>
@@ -4790,19 +4790,19 @@
         <v>2392802</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2354523</v>
+        <v>2352397</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2430352</v>
+        <v>2432947</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8524035162029797</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8387674849536505</v>
+        <v>0.838009844773024</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8657803137504386</v>
+        <v>0.8667049751050762</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>27975</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19065</v>
+        <v>18654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39283</v>
+        <v>39570</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2232971174570315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1521781530220472</v>
+        <v>0.1488963571249276</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3135589337571013</v>
+        <v>0.3158487111985744</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -5159,19 +5159,19 @@
         <v>37312</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27637</v>
+        <v>27834</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49220</v>
+        <v>48510</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2644288337161108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1958628027806918</v>
+        <v>0.1972576113355965</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3488146410632232</v>
+        <v>0.3437844987748601</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -5180,19 +5180,19 @@
         <v>65287</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51004</v>
+        <v>51891</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81029</v>
+        <v>80512</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2450847875086713</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1914683335831734</v>
+        <v>0.1947945490348774</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3041782645314085</v>
+        <v>0.3022363528135424</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>97305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>85997</v>
+        <v>85710</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106215</v>
+        <v>106626</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7767028825429685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6864410662428986</v>
+        <v>0.6841512888014257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8478218469779527</v>
+        <v>0.8511036428750723</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -5230,19 +5230,19 @@
         <v>103794</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91886</v>
+        <v>92596</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113469</v>
+        <v>113272</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7355711662838893</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6511853589367766</v>
+        <v>0.6562155012251399</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8041371972193081</v>
+        <v>0.8027423886644035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>190</v>
@@ -5251,19 +5251,19 @@
         <v>201099</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>185357</v>
+        <v>185874</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>215382</v>
+        <v>214495</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7549152124913286</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6958217354685916</v>
+        <v>0.6977636471864574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8085316664168268</v>
+        <v>0.8052054509651226</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>22184</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14327</v>
+        <v>14422</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33109</v>
+        <v>32926</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1091335686443557</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07047868424816221</v>
+        <v>0.07094572341004245</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1628755683534917</v>
+        <v>0.1619783141258951</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -5376,19 +5376,19 @@
         <v>16896</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9869</v>
+        <v>10034</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25723</v>
+        <v>26505</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08208661872473771</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0479478201716825</v>
+        <v>0.04874634578605938</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1249719894536744</v>
+        <v>0.1287717953050755</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -5397,19 +5397,19 @@
         <v>39080</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28459</v>
+        <v>27923</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52642</v>
+        <v>52621</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09552568208940428</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06956456605447835</v>
+        <v>0.06825381115190716</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.128673981329678</v>
+        <v>0.1286235176145668</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>181093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>170168</v>
+        <v>170351</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>188950</v>
+        <v>188855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8908664313556444</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8371244316465081</v>
+        <v>0.8380216858741049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9295213157518377</v>
+        <v>0.9290542765899577</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>173</v>
@@ -5447,19 +5447,19 @@
         <v>188935</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>180108</v>
+        <v>179326</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>195962</v>
+        <v>195797</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9179133812752623</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8750280105463256</v>
+        <v>0.871228204694924</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9520521798283175</v>
+        <v>0.9512536542139406</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>348</v>
@@ -5468,19 +5468,19 @@
         <v>370028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>356466</v>
+        <v>356487</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>380649</v>
+        <v>381185</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9044743179105957</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8713260186703219</v>
+        <v>0.8713764823854332</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9304354339455216</v>
+        <v>0.9317461888480927</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>16896</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10910</v>
+        <v>10723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25975</v>
+        <v>24991</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1485503327829825</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09591865057930804</v>
+        <v>0.09428064466123871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2283725892486836</v>
+        <v>0.2197270462684543</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5593,19 +5593,19 @@
         <v>13628</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7844</v>
+        <v>7831</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21370</v>
+        <v>22491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09150375620444191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05266543087440442</v>
+        <v>0.05258046415312932</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1434844764558927</v>
+        <v>0.1510157111758176</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -5614,19 +5614,19 @@
         <v>30524</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22525</v>
+        <v>20795</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42330</v>
+        <v>42041</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1162051510623525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08575386084705229</v>
+        <v>0.07916742067677354</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.161152493915757</v>
+        <v>0.1600506098454703</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>96842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>87763</v>
+        <v>88747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102828</v>
+        <v>103015</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8514496672170175</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7716274107513162</v>
+        <v>0.7802729537315457</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.904081349420692</v>
+        <v>0.9057193553387611</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>132</v>
@@ -5664,19 +5664,19 @@
         <v>135306</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>127564</v>
+        <v>126443</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>141090</v>
+        <v>141103</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.908496243795558</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8565155235441072</v>
+        <v>0.8489842888241824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9473345691255955</v>
+        <v>0.9474195358468707</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>236</v>
@@ -5685,19 +5685,19 @@
         <v>232148</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>220342</v>
+        <v>220631</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>240147</v>
+        <v>241877</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8837948489376475</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.838847506084243</v>
+        <v>0.8399493901545297</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9142461391529477</v>
+        <v>0.9208325793232264</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>58919</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46221</v>
+        <v>46100</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72305</v>
+        <v>72028</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3556127025226573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2789755759675638</v>
+        <v>0.2782444532476197</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4364093084291384</v>
+        <v>0.4347391308452494</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -5813,16 +5813,16 @@
         <v>35829</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60056</v>
+        <v>60075</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.263288328571066</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2018049977885957</v>
+        <v>0.2018026763843588</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3382617252246129</v>
+        <v>0.3383687076996275</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -5831,19 +5831,19 @@
         <v>105664</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88062</v>
+        <v>88472</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123576</v>
+        <v>124997</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3078550447665972</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.256572278648017</v>
+        <v>0.2577671508631867</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3600424155482728</v>
+        <v>0.3641822101553132</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>106763</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93377</v>
+        <v>93654</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119461</v>
+        <v>119582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6443872974773428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5635906915708615</v>
+        <v>0.5652608691547506</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7210244240324361</v>
+        <v>0.7217555467523802</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>120</v>
@@ -5881,7 +5881,7 @@
         <v>130799</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117488</v>
+        <v>117469</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>141715</v>
@@ -5890,10 +5890,10 @@
         <v>0.736711671428934</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6617382747753876</v>
+        <v>0.6616312923003724</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7981950022114045</v>
+        <v>0.7981973236156412</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>222</v>
@@ -5902,19 +5902,19 @@
         <v>237562</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>219650</v>
+        <v>218229</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>255164</v>
+        <v>254754</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6921449552334028</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6399575844517272</v>
+        <v>0.6358177898446865</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7434277213519829</v>
+        <v>0.7422328491368133</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>8967</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4330</v>
+        <v>4411</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16785</v>
+        <v>16978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1048998267392881</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05065219041738912</v>
+        <v>0.0515993188337402</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1963462879789097</v>
+        <v>0.1986110675984956</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6027,19 +6027,19 @@
         <v>5548</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1938</v>
+        <v>1903</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11414</v>
+        <v>11352</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07903151549175337</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0276040099603688</v>
+        <v>0.02711504676527441</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1625987123817804</v>
+        <v>0.1617191981061728</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -6048,19 +6048,19 @@
         <v>14515</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8247</v>
+        <v>8086</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23481</v>
+        <v>23309</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09323588433920488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05297454463032161</v>
+        <v>0.05193828683298384</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1508301363099083</v>
+        <v>0.1497249084702645</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>76518</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68700</v>
+        <v>68507</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81155</v>
+        <v>81074</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8951001732607119</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.80365371202109</v>
+        <v>0.8013889324015038</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9493478095826107</v>
+        <v>0.9484006811662598</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>65</v>
@@ -6098,19 +6098,19 @@
         <v>64648</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58782</v>
+        <v>58844</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68258</v>
+        <v>68293</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9209684845082466</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8374012876182196</v>
+        <v>0.8382808018938273</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9723959900396313</v>
+        <v>0.9728849532347256</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>142</v>
@@ -6119,19 +6119,19 @@
         <v>141166</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>132200</v>
+        <v>132372</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>147434</v>
+        <v>147595</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9067641156607952</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8491698636900917</v>
+        <v>0.8502750915297351</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9470254553696785</v>
+        <v>0.948061713167016</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>7746</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2981</v>
+        <v>3734</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14129</v>
+        <v>14376</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07409885647020729</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02851652457242774</v>
+        <v>0.03571926759320196</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1351627318277891</v>
+        <v>0.137526687356469</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -6244,19 +6244,19 @@
         <v>6511</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2741</v>
+        <v>2763</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12901</v>
+        <v>12880</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05898776775343998</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0248290972793344</v>
+        <v>0.02502988574931088</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.116884245496632</v>
+        <v>0.1166913676075868</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -6265,19 +6265,19 @@
         <v>14256</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8526</v>
+        <v>8482</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22229</v>
+        <v>21932</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.066337846887847</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03967179084385462</v>
+        <v>0.03947010805471498</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.103435502087105</v>
+        <v>0.1020554900528613</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>96785</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90402</v>
+        <v>90155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101550</v>
+        <v>100797</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9259011435297927</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8648372681722123</v>
+        <v>0.8624733126435318</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9714834754275723</v>
+        <v>0.9642807324067981</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>101</v>
@@ -6315,19 +6315,19 @@
         <v>103864</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>97474</v>
+        <v>97495</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>107634</v>
+        <v>107612</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9410122322465601</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.883115754503368</v>
+        <v>0.8833086323924131</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9751709027206656</v>
+        <v>0.9749701142506891</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>196</v>
@@ -6336,19 +6336,19 @@
         <v>200650</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>192677</v>
+        <v>192974</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>206380</v>
+        <v>206424</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9336621531121531</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8965644979128953</v>
+        <v>0.8979445099471383</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9603282091561455</v>
+        <v>0.9605298919452849</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>58150</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45836</v>
+        <v>45110</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73757</v>
+        <v>73066</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1815072210956477</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1430727200005591</v>
+        <v>0.1408059965712247</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2302234244513487</v>
+        <v>0.2280651969527578</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -6461,19 +6461,19 @@
         <v>47516</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35883</v>
+        <v>35820</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61622</v>
+        <v>61666</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1252033133508437</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09454890774921869</v>
+        <v>0.0943841131089745</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1623711498747972</v>
+        <v>0.162487838432641</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>99</v>
@@ -6482,19 +6482,19 @@
         <v>105666</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88367</v>
+        <v>86374</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>127823</v>
+        <v>123779</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1509763749161137</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1262593884604991</v>
+        <v>0.123412138190825</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1826340950037778</v>
+        <v>0.17685535446712</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>262222</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>246615</v>
+        <v>247306</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>274536</v>
+        <v>275262</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8184927789043523</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7697765755486511</v>
+        <v>0.7719348030472422</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8569272799994402</v>
+        <v>0.8591940034287753</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>308</v>
@@ -6532,19 +6532,19 @@
         <v>331998</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>317892</v>
+        <v>317848</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>343631</v>
+        <v>343694</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8747966866491563</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8376288501252027</v>
+        <v>0.837512161567359</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9054510922507814</v>
+        <v>0.9056158868910256</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>541</v>
@@ -6553,19 +6553,19 @@
         <v>594220</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>572063</v>
+        <v>576107</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>611519</v>
+        <v>613512</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8490236250838863</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8173659049962223</v>
+        <v>0.82314464553288</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8737406115395011</v>
+        <v>0.8765878618091751</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>54427</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41374</v>
+        <v>41522</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70470</v>
+        <v>69053</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1584126879877603</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1204201884626118</v>
+        <v>0.1208512900648333</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2051073303630746</v>
+        <v>0.2009822494875</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -6678,19 +6678,19 @@
         <v>50041</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38063</v>
+        <v>38315</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>64884</v>
+        <v>64996</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1391510500729564</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1058434559352392</v>
+        <v>0.1065454543782286</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1804259112087103</v>
+        <v>0.1807377782353829</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>101</v>
@@ -6699,19 +6699,19 @@
         <v>104468</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>88076</v>
+        <v>86449</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>125465</v>
+        <v>125575</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1485622162047412</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1252521504326911</v>
+        <v>0.1229375123131692</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1784219741336398</v>
+        <v>0.1785781430369093</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>289151</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>273108</v>
+        <v>274525</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>302204</v>
+        <v>302056</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8415873120122397</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7948926696369254</v>
+        <v>0.7990177505124999</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8795798115373882</v>
+        <v>0.8791487099351667</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>283</v>
@@ -6749,19 +6749,19 @@
         <v>309575</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>294732</v>
+        <v>294620</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>321553</v>
+        <v>321301</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8608489499270436</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8195740887912898</v>
+        <v>0.819262221764617</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8941565440647607</v>
+        <v>0.8934545456217714</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>563</v>
@@ -6770,19 +6770,19 @@
         <v>598725</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>577728</v>
+        <v>577618</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>615117</v>
+        <v>616744</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8514377837952587</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8215780258663599</v>
+        <v>0.8214218569630908</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8747478495673087</v>
+        <v>0.8770624876868309</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>255263</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>225082</v>
+        <v>227557</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>286459</v>
+        <v>288915</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1746055103624143</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1539609280528983</v>
+        <v>0.1556537174161889</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1959440889974912</v>
+        <v>0.1976241441750715</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>220</v>
@@ -6895,19 +6895,19 @@
         <v>224197</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>199663</v>
+        <v>197027</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>252453</v>
+        <v>252608</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.140728973158881</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1253288917674998</v>
+        <v>0.1236741914364244</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.158465056543249</v>
+        <v>0.15856219000454</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>454</v>
@@ -6916,19 +6916,19 @@
         <v>479461</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>440118</v>
+        <v>440080</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>523910</v>
+        <v>525094</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.156939974447389</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1440621099657039</v>
+        <v>0.1440496062482402</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1714893317782281</v>
+        <v>0.171877021074582</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1206679</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1175483</v>
+        <v>1173027</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1236860</v>
+        <v>1234385</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8253944896375857</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8040559110025088</v>
+        <v>0.8023758558249288</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8460390719471018</v>
+        <v>0.8443462825838112</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1282</v>
@@ -6966,19 +6966,19 @@
         <v>1368918</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1340662</v>
+        <v>1340507</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1393452</v>
+        <v>1396088</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.859271026841119</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8415349434567505</v>
+        <v>0.8414378099954604</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8746711082325002</v>
+        <v>0.8763258085635757</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2438</v>
@@ -6987,19 +6987,19 @@
         <v>2575597</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2531148</v>
+        <v>2529964</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2614940</v>
+        <v>2614978</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8430600255526111</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8285106682217719</v>
+        <v>0.828122978925418</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8559378900342961</v>
+        <v>0.8559503937517597</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>27478</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18039</v>
+        <v>17812</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38456</v>
+        <v>39166</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1807447156235137</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1186568500641977</v>
+        <v>0.1171667310988807</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2529574128393244</v>
+        <v>0.2576290751267348</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -7356,19 +7356,19 @@
         <v>25995</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18001</v>
+        <v>18528</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35505</v>
+        <v>35534</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1765288887530995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1222411014692304</v>
+        <v>0.1258230453623115</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2411089342853704</v>
+        <v>0.2413099765863884</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -7377,19 +7377,19 @@
         <v>53473</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41294</v>
+        <v>40237</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66898</v>
+        <v>68230</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1786703918078602</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1379757149008192</v>
+        <v>0.1344467346296244</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2235289386200119</v>
+        <v>0.2279808182851784</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>124547</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113569</v>
+        <v>112859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>133986</v>
+        <v>134213</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8192552843764865</v>
+        <v>0.8192552843764864</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7470425871606756</v>
+        <v>0.7423709248732653</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8813431499358025</v>
+        <v>0.8828332689011192</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>189</v>
@@ -7427,19 +7427,19 @@
         <v>121261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111751</v>
+        <v>111722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129255</v>
+        <v>128728</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8234711112469005</v>
+        <v>0.8234711112469004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7588910657146296</v>
+        <v>0.7586900234136118</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8777588985307694</v>
+        <v>0.8741769546376885</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>297</v>
@@ -7448,19 +7448,19 @@
         <v>245808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>232383</v>
+        <v>231051</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>257987</v>
+        <v>259044</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8213296081921397</v>
+        <v>0.8213296081921396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7764710613799881</v>
+        <v>0.772019181714821</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8620242850991808</v>
+        <v>0.8655532653703752</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>52248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36755</v>
+        <v>37375</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72441</v>
+        <v>73762</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1891812401190799</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1330836483052091</v>
+        <v>0.1353283431701439</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2622956695545698</v>
+        <v>0.2670793008927506</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -7573,19 +7573,19 @@
         <v>51823</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39168</v>
+        <v>37738</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66118</v>
+        <v>64849</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1953995891231215</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1476858676426003</v>
+        <v>0.1422936082310648</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2493005151943179</v>
+        <v>0.2445175134843089</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -7594,19 +7594,19 @@
         <v>104071</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83735</v>
+        <v>83734</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127538</v>
+        <v>129685</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1922274396000535</v>
+        <v>0.1922274396000534</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1546651396340745</v>
+        <v>0.1546633226407582</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2355733382710544</v>
+        <v>0.2395390806583761</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>223932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>203739</v>
+        <v>202418</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>239425</v>
+        <v>238805</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.81081875988092</v>
+        <v>0.8108187598809199</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7377043304454299</v>
+        <v>0.7329206991072494</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8669163516947906</v>
+        <v>0.864671656829856</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>272</v>
@@ -7644,19 +7644,19 @@
         <v>213391</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>199096</v>
+        <v>200365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>226046</v>
+        <v>227476</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8046004108768784</v>
+        <v>0.8046004108768786</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7506994848056823</v>
+        <v>0.7554824865156912</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8523141323573997</v>
+        <v>0.8577063917689353</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>407</v>
@@ -7665,19 +7665,19 @@
         <v>437322</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>413855</v>
+        <v>411708</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>457658</v>
+        <v>457659</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8077725603999466</v>
+        <v>0.8077725603999464</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7644266617289455</v>
+        <v>0.7604609193416237</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8453348603659253</v>
+        <v>0.8453366773592418</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>21623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14150</v>
+        <v>14273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30957</v>
+        <v>31709</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1329329915895693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08699260676127955</v>
+        <v>0.08774621813730475</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.190316189021806</v>
+        <v>0.194941473314887</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -7790,19 +7790,19 @@
         <v>25962</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18250</v>
+        <v>17698</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35590</v>
+        <v>34131</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1354433591352295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09521424912199344</v>
+        <v>0.09233216989083418</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1856781155617685</v>
+        <v>0.1780648685365969</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -7811,19 +7811,19 @@
         <v>47584</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36038</v>
+        <v>35580</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61428</v>
+        <v>59811</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1342909627156752</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1017047560906634</v>
+        <v>0.1004127206510712</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.173360473558078</v>
+        <v>0.1687972352654126</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>141038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>131704</v>
+        <v>130952</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>148511</v>
+        <v>148388</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8670670084104307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8096838109781942</v>
+        <v>0.805058526685113</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9130073932387203</v>
+        <v>0.9122537818626951</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>240</v>
@@ -7861,19 +7861,19 @@
         <v>165716</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>156088</v>
+        <v>157547</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>173428</v>
+        <v>173980</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8645566408647705</v>
+        <v>0.8645566408647704</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8143218844382315</v>
+        <v>0.8219351314634032</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9047857508780066</v>
+        <v>0.9076678301091657</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>383</v>
@@ -7882,19 +7882,19 @@
         <v>306754</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>292910</v>
+        <v>294527</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>318300</v>
+        <v>318758</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8657090372843248</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8266395264419221</v>
+        <v>0.8312027647345874</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8982952439093365</v>
+        <v>0.8995872793489287</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>52202</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35861</v>
+        <v>34937</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73956</v>
+        <v>74529</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2508601981916807</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1723301349878497</v>
+        <v>0.1678916270859616</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3554002184503436</v>
+        <v>0.3581534341598087</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -8007,19 +8007,19 @@
         <v>39399</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28261</v>
+        <v>28520</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52908</v>
+        <v>53722</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1746949806218934</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1253094401307939</v>
+        <v>0.1264556421608477</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2345891414247744</v>
+        <v>0.2381993011863662</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -8028,19 +8028,19 @@
         <v>91602</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72646</v>
+        <v>72594</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115815</v>
+        <v>115938</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2112458649126537</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1675324189259128</v>
+        <v>0.1674107189369954</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2670843800277354</v>
+        <v>0.2673682023370534</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>155891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134137</v>
+        <v>133564</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172232</v>
+        <v>173156</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7491398018083192</v>
+        <v>0.7491398018083193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6445997815496558</v>
+        <v>0.6418465658401913</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8276698650121502</v>
+        <v>0.8321083729140384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>261</v>
@@ -8078,19 +8078,19 @@
         <v>186134</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>172625</v>
+        <v>171811</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>197272</v>
+        <v>197013</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8253050193781066</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7654108585752257</v>
+        <v>0.7618006988136341</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8746905598692062</v>
+        <v>0.8735443578391524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>363</v>
@@ -8099,19 +8099,19 @@
         <v>342024</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>317811</v>
+        <v>317688</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>360980</v>
+        <v>361032</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7887541350873465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7329156199722646</v>
+        <v>0.7326317976629465</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8324675810740872</v>
+        <v>0.8325892810630047</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>8631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4160</v>
+        <v>3913</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16053</v>
+        <v>15406</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08672554773776547</v>
+        <v>0.0867255477377655</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04180100620987532</v>
+        <v>0.03931619324811621</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1612947913115133</v>
+        <v>0.1548008282123353</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -8224,19 +8224,19 @@
         <v>11193</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6896</v>
+        <v>7033</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17240</v>
+        <v>17508</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1129937510109768</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0696155736256812</v>
+        <v>0.07099446165692272</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1740363020318732</v>
+        <v>0.1767361928557465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -8245,19 +8245,19 @@
         <v>19825</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13175</v>
+        <v>13525</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28474</v>
+        <v>27955</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09982909761440746</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06634460251566401</v>
+        <v>0.06810800650257604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.143383141500804</v>
+        <v>0.1407727367232986</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>90893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83471</v>
+        <v>84118</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95364</v>
+        <v>95611</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9132744522622345</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.838705208688487</v>
+        <v>0.8451991717876647</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9581989937901246</v>
+        <v>0.9606838067518837</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -8295,19 +8295,19 @@
         <v>87869</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>81822</v>
+        <v>81554</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92166</v>
+        <v>92029</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8870062489890234</v>
+        <v>0.8870062489890232</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8259636979681266</v>
+        <v>0.8232638071442535</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9303844263743187</v>
+        <v>0.9290055383430772</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>295</v>
@@ -8316,19 +8316,19 @@
         <v>178760</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>170111</v>
+        <v>170630</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>185410</v>
+        <v>185060</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9001709023855927</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8566168584991962</v>
+        <v>0.8592272632767014</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9336553974843361</v>
+        <v>0.9318919934974239</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>17403</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11099</v>
+        <v>10780</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25832</v>
+        <v>26113</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1255708259413801</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08008342460487981</v>
+        <v>0.07778139535257135</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1863928002442013</v>
+        <v>0.1884191091283049</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -8441,19 +8441,19 @@
         <v>18409</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12300</v>
+        <v>11983</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26920</v>
+        <v>26933</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1340323902797027</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08955090584927215</v>
+        <v>0.08724684107889562</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1959938519135153</v>
+        <v>0.1960897803358643</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -8462,19 +8462,19 @@
         <v>35812</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26233</v>
+        <v>26825</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46967</v>
+        <v>46576</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1297826147109125</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0950675493819529</v>
+        <v>0.09721205475068143</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1702056354865855</v>
+        <v>0.168789207835698</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>121186</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>112757</v>
+        <v>112476</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>127490</v>
+        <v>127809</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8744291740586199</v>
+        <v>0.87442917405862</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8136071997557991</v>
+        <v>0.811580890871695</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9199165753951207</v>
+        <v>0.9222186046474288</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -8512,19 +8512,19 @@
         <v>118942</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>110431</v>
+        <v>110418</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>125051</v>
+        <v>125368</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8659676097202973</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8040061480864846</v>
+        <v>0.8039102196641353</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9104490941507277</v>
+        <v>0.9127531589211043</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>362</v>
@@ -8533,19 +8533,19 @@
         <v>240128</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>228973</v>
+        <v>229364</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>249707</v>
+        <v>249115</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8702173852890874</v>
+        <v>0.8702173852890877</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8297943645134145</v>
+        <v>0.8312107921643017</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9049324506180471</v>
+        <v>0.9027879452493184</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>59616</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42811</v>
+        <v>44228</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78070</v>
+        <v>77072</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1694289149716818</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1216710443159953</v>
+        <v>0.1256971917776004</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2218770668670805</v>
+        <v>0.2190402798668161</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -8658,19 +8658,19 @@
         <v>66747</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53313</v>
+        <v>53655</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81603</v>
+        <v>81690</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1710520645538837</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1366243661530377</v>
+        <v>0.1375007505321618</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2091215195604962</v>
+        <v>0.2093461263217567</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>121</v>
@@ -8679,19 +8679,19 @@
         <v>126363</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>103874</v>
+        <v>104339</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>148274</v>
+        <v>151685</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.17028243706156</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1399764064478778</v>
+        <v>0.1406036913301286</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1998090249943064</v>
+        <v>0.2044057552381766</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>292246</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>273792</v>
+        <v>274790</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>309051</v>
+        <v>307634</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.830571085028318</v>
+        <v>0.8305710850283182</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7781229331329195</v>
+        <v>0.780959720133184</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8783289556840047</v>
+        <v>0.8743028082223996</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>369</v>
@@ -8729,19 +8729,19 @@
         <v>323470</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>308614</v>
+        <v>308527</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>336904</v>
+        <v>336562</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8289479354461162</v>
+        <v>0.8289479354461161</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7908784804395038</v>
+        <v>0.790653873678243</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8633756338469623</v>
+        <v>0.862499249467838</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>576</v>
@@ -8750,19 +8750,19 @@
         <v>615716</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>593805</v>
+        <v>590394</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>638205</v>
+        <v>637740</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8297175629384399</v>
+        <v>0.82971756293844</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8001909750056939</v>
+        <v>0.7955942447618233</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8600235935521221</v>
+        <v>0.8593963086698713</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>45997</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33801</v>
+        <v>31911</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63504</v>
+        <v>62941</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1277369233928097</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09386580356781031</v>
+        <v>0.08861728167722387</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1763540282075257</v>
+        <v>0.174790179627456</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -8875,19 +8875,19 @@
         <v>18158</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11196</v>
+        <v>11039</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27819</v>
+        <v>28012</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04376129742576258</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02698149794187036</v>
+        <v>0.0266041142008872</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06704412040950244</v>
+        <v>0.06750847494199813</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -8896,19 +8896,19 @@
         <v>64155</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>47862</v>
+        <v>47834</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83799</v>
+        <v>83641</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08277799628408432</v>
+        <v>0.08277799628408433</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06175456644891451</v>
+        <v>0.06171929521555689</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1081239085156891</v>
+        <v>0.1079196654135218</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>314097</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>296590</v>
+        <v>297153</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>326293</v>
+        <v>328183</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8722630766071903</v>
+        <v>0.8722630766071902</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8236459717924746</v>
+        <v>0.825209820372544</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9061341964321896</v>
+        <v>0.9113827183227762</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>479</v>
@@ -8946,19 +8946,19 @@
         <v>396778</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>387117</v>
+        <v>386924</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>403740</v>
+        <v>403897</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9562387025742376</v>
+        <v>0.9562387025742373</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9329558795904975</v>
+        <v>0.9324915250580017</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9730185020581296</v>
+        <v>0.9733958857991125</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>734</v>
@@ -8967,19 +8967,19 @@
         <v>710875</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>691231</v>
+        <v>691389</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>727168</v>
+        <v>727196</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9172220037159154</v>
+        <v>0.9172220037159158</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8918760914843108</v>
+        <v>0.8920803345864782</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9382454335510855</v>
+        <v>0.9382807047844433</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>285198</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>248112</v>
+        <v>250248</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>324846</v>
+        <v>325807</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1630608151273786</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1418574240684282</v>
+        <v>0.143078393107544</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1857296586692203</v>
+        <v>0.1862788582399737</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>293</v>
@@ -9092,19 +9092,19 @@
         <v>257687</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>227579</v>
+        <v>230137</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>288035</v>
+        <v>289501</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1377087440063847</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1216190966698882</v>
+        <v>0.1229857601210919</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.153926723652598</v>
+        <v>0.1547100820222892</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>509</v>
@@ -9113,19 +9113,19 @@
         <v>542885</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>499634</v>
+        <v>497276</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>599208</v>
+        <v>591771</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1499568387655092</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1380100807399491</v>
+        <v>0.1373586234160603</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.165514468450771</v>
+        <v>0.1634603102612082</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1463829</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1424181</v>
+        <v>1423220</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1500915</v>
+        <v>1498779</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8369391848726213</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8142703413307794</v>
+        <v>0.8137211417600261</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8581425759315717</v>
+        <v>0.8569216068924558</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2199</v>
@@ -9163,19 +9163,19 @@
         <v>1613560</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1583212</v>
+        <v>1581746</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1643668</v>
+        <v>1641110</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8622912559936152</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8460732763474028</v>
+        <v>0.8452899179777115</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.878380903330112</v>
+        <v>0.877014239878908</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3417</v>
@@ -9184,19 +9184,19 @@
         <v>3077389</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3021066</v>
+        <v>3028503</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3120640</v>
+        <v>3122998</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8500431612344908</v>
+        <v>0.8500431612344906</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.834485531549229</v>
+        <v>0.8365396897387918</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8619899192600512</v>
+        <v>0.8626413765839396</v>
       </c>
     </row>
     <row r="30">
